--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/20/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.944</v>
+        <v>-7.817</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.256</v>
+        <v>-8.106999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.944000000000001</v>
+        <v>5.481</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.232</v>
+        <v>-22.322</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.05</v>
+        <v>-21.584</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -624,7 +624,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.266</v>
+        <v>-7.653</v>
       </c>
       <c r="E11" t="n">
         <v>17.04</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.547</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,13 +669,13 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>5.741999999999999</v>
+        <v>6.043</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.973999999999999</v>
+        <v>-7.343999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.324000000000001</v>
+        <v>5.242000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,16 +734,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.992</v>
+        <v>-21.974</v>
       </c>
       <c r="B18" t="n">
-        <v>4.76</v>
+        <v>5.683</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.715999999999999</v>
+        <v>-8.608000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.054</v>
+        <v>-8.053999999999998</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.5</v>
+        <v>7.423</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.052000000000001</v>
+        <v>-8.425000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.836</v>
+        <v>-21.791</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.368</v>
+        <v>-8.399000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.308</v>
+        <v>4.999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.738</v>
+        <v>5.306</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,13 +958,13 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.714</v>
+        <v>6.244</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.112</v>
+        <v>-8.331</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.244</v>
+        <v>8.192</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.774</v>
+        <v>-20.298</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.16</v>
+        <v>-8.378</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>8.598000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.052000000000001</v>
+        <v>-8.303999999999998</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1179,13 +1179,13 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.318</v>
+        <v>5.264</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.836</v>
+        <v>-7.514999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.664</v>
+        <v>-7.903</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1281,7 +1281,7 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.958</v>
+        <v>4.715000000000001</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.864</v>
+        <v>4.955</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.842</v>
+        <v>-21.843</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.146000000000001</v>
+        <v>-8.224</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.379999999999999</v>
+        <v>-8.370999999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1542,7 +1542,7 @@
         <v>-11.86</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.465999999999999</v>
+        <v>-7.772</v>
       </c>
       <c r="E65" t="n">
         <v>17.18</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.484</v>
+        <v>-21.435</v>
       </c>
       <c r="B68" t="n">
-        <v>4.522</v>
+        <v>5.298</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.673999999999999</v>
+        <v>-8.154</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>7.034000000000001</v>
+        <v>6.342999999999999</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.576</v>
+        <v>-21.036</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.85</v>
+        <v>-20.308</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.932</v>
+        <v>-21.813</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-20.42</v>
+        <v>-20.864</v>
       </c>
       <c r="B80" t="n">
         <v>11.21</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-21.834</v>
+        <v>-21.708</v>
       </c>
       <c r="B81" t="n">
         <v>3.85</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.958</v>
+        <v>-22.005</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-22.138</v>
+        <v>-21.873</v>
       </c>
       <c r="B84" t="n">
         <v>4.99</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>3.946</v>
+        <v>4.636</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.08</v>
+        <v>4.858</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -1967,7 +1967,7 @@
         <v>-12.06</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.787999999999999</v>
+        <v>-8.236999999999998</v>
       </c>
       <c r="E90" t="n">
         <v>16.68</v>
@@ -1995,13 +1995,13 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>6.708000000000001</v>
+        <v>5.895999999999999</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.044</v>
+        <v>-6.458999999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2035,7 +2035,7 @@
         <v>-10.65</v>
       </c>
       <c r="D94" t="n">
-        <v>-7.328</v>
+        <v>-7.195</v>
       </c>
       <c r="E94" t="n">
         <v>17.92</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.33</v>
+        <v>-7.719000000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>6.25</v>
+        <v>6.234000000000001</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.302</v>
+        <v>5.778</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2145,16 +2145,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-21.492</v>
+        <v>-21.491</v>
       </c>
       <c r="B101" t="n">
-        <v>5.69</v>
+        <v>5.936999999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.294</v>
+        <v>-8.056000000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2162,10 +2162,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-21.294</v>
+        <v>-20.934</v>
       </c>
       <c r="B102" t="n">
-        <v>6.446000000000001</v>
+        <v>6.515000000000001</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
